--- a/Data/Sampling_mass_purgetimes.xlsx
+++ b/Data/Sampling_mass_purgetimes.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewnguyen/Circadian_rhythm_runs_seasonal_timing/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1820" yWindow="1180" windowWidth="39880" windowHeight="24960" tabRatio="500"/>
   </bookViews>
@@ -15,25 +10,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>cohort date</t>
   </si>
@@ -48,9 +40,6 @@
   </si>
   <si>
     <t>mass</t>
-  </si>
-  <si>
-    <t>resp_time</t>
   </si>
   <si>
     <t>purge_time</t>
@@ -72,6 +61,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -238,7 +228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -415,7 +405,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,27 +416,28 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="37" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="37" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21" style="6"/>
-    <col min="2" max="16384" width="21" style="2"/>
+    <col min="1" max="1" width="35.83203125" style="6" customWidth="1"/>
+    <col min="2" max="5" width="35.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="21" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="37" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -454,19 +445,13 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="37" customHeight="1" thickBot="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -474,15 +459,13 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="37" customHeight="1" thickBot="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -490,15 +473,13 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="37" customHeight="1">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -506,10 +487,8 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" ht="37" customHeight="1">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -517,10 +496,8 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" ht="37" customHeight="1">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -528,10 +505,8 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" ht="37" customHeight="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -539,10 +514,8 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" ht="37" customHeight="1">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -550,10 +523,8 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" ht="37" customHeight="1">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -561,10 +532,8 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" ht="37" customHeight="1">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -572,10 +541,8 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" ht="37" customHeight="1">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -583,10 +550,8 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" ht="37" customHeight="1">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -594,10 +559,8 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" ht="37" customHeight="1">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -605,10 +568,8 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" ht="37" customHeight="1">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -616,10 +577,8 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" ht="37" customHeight="1">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -627,10 +586,8 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" ht="37" customHeight="1">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -638,10 +595,8 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:5" ht="37" customHeight="1">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -649,10 +604,8 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:5" ht="37" customHeight="1">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -660,10 +613,8 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:5" ht="37" customHeight="1">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -671,10 +622,8 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:5" ht="37" customHeight="1">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -682,10 +631,8 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:5" ht="37" customHeight="1">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -693,10 +640,8 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:5" ht="37" customHeight="1">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -704,10 +649,8 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:5" ht="37" customHeight="1">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -715,10 +658,8 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:5" ht="37" customHeight="1">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -726,10 +667,8 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:5" ht="37" customHeight="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -737,10 +676,8 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:5" ht="37" customHeight="1">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -748,10 +685,8 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:5" ht="37" customHeight="1">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -759,10 +694,8 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:5" ht="37" customHeight="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -770,10 +703,8 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:5" ht="37" customHeight="1">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -781,10 +712,8 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:5" ht="37" customHeight="1">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -792,10 +721,8 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:5" ht="37" customHeight="1">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -803,10 +730,8 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" ht="37" customHeight="1">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -814,10 +739,8 @@
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:5" ht="37" customHeight="1">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -825,10 +748,8 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" ht="37" customHeight="1">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -836,10 +757,8 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" ht="37" customHeight="1">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -847,10 +766,8 @@
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" ht="37" customHeight="1">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -858,10 +775,8 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" ht="37" customHeight="1">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -869,10 +784,8 @@
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:5" ht="37" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -880,10 +793,8 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:5" ht="37" customHeight="1">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -891,10 +802,8 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:5" ht="37" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -902,10 +811,8 @@
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:5" ht="37" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -913,10 +820,8 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" ht="37" customHeight="1">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -924,10 +829,8 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:5" ht="37" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -935,10 +838,8 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:5" ht="37" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -946,10 +847,8 @@
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:5" ht="37" customHeight="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -957,10 +856,8 @@
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:5" ht="37" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -968,10 +865,8 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" ht="37" customHeight="1">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -979,10 +874,8 @@
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:5" ht="37" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -990,10 +883,8 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-    </row>
-    <row r="49" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:5" ht="37" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -1001,10 +892,8 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:5" ht="37" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1012,10 +901,8 @@
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:5" ht="37" customHeight="1">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -1023,10 +910,8 @@
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:5" ht="37" customHeight="1">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -1034,10 +919,8 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:5" ht="37" customHeight="1">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -1045,10 +928,8 @@
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:5" ht="37" customHeight="1">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -1056,10 +937,8 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:5" ht="37" customHeight="1">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -1067,10 +946,8 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:5" ht="37" customHeight="1">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -1078,10 +955,8 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:5" ht="37" customHeight="1">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -1089,10 +964,8 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:5" ht="37" customHeight="1">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -1100,10 +973,8 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" ht="37" customHeight="1">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -1111,10 +982,8 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:5" ht="37" customHeight="1">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -1122,10 +991,8 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:5" ht="37" customHeight="1">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -1133,10 +1000,8 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:5" ht="37" customHeight="1">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -1144,10 +1009,8 @@
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:5" ht="37" customHeight="1">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -1155,10 +1018,8 @@
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:5" ht="37" customHeight="1">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -1166,10 +1027,8 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-    </row>
-    <row r="65" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:5" ht="37" customHeight="1">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -1177,10 +1036,8 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-    </row>
-    <row r="66" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5" ht="37" customHeight="1">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -1188,10 +1045,8 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:5" ht="37" customHeight="1">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -1199,10 +1054,8 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:5" ht="37" customHeight="1">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -1210,10 +1063,8 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-    </row>
-    <row r="69" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:5" ht="37" customHeight="1">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -1221,10 +1072,8 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-    </row>
-    <row r="70" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:5" ht="37" customHeight="1">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -1232,10 +1081,8 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-    </row>
-    <row r="71" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:5" ht="37" customHeight="1">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -1243,10 +1090,8 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-    </row>
-    <row r="72" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:5" ht="37" customHeight="1">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -1254,10 +1099,8 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-    </row>
-    <row r="73" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:5" ht="37" customHeight="1">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -1265,10 +1108,8 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-    </row>
-    <row r="74" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:5" ht="37" customHeight="1">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -1276,10 +1117,8 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-    </row>
-    <row r="75" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:5" ht="37" customHeight="1">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -1287,10 +1126,8 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-    </row>
-    <row r="76" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:5" ht="37" customHeight="1">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -1298,10 +1135,8 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-    </row>
-    <row r="77" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:5" ht="37" customHeight="1">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -1309,10 +1144,8 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" spans="1:7" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:5" ht="37" customHeight="1">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -1320,12 +1153,15 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="36" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="32" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>